--- a/ORALbox.xlsx
+++ b/ORALbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PHDWORK\BOX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BB35FD-54CF-4C49-8CA2-26285827787E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB2F775-1396-48B4-BDEF-DA57DA683BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B394091B-DFB7-4EE3-92AD-AEB0CC856A44}"/>
   </bookViews>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:J320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="O155" sqref="O155"/>
+      <selection activeCell="P158" sqref="P158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
